--- a/xlsx/country_comparison/global_movement_mean.xlsx
+++ b/xlsx/country_comparison/global_movement_mean.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.26517571884984</v>
+        <v>0.29112426035503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317948717948718</v>
+        <v>0.296254256526674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.303430079155673</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.584664536741214</v>
+        <v>0.533727810650888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.576923076923077</v>
+        <v>0.584562996594779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.570909090909091</v>
+        <v>0.54221635883905</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178913738019169</v>
+        <v>0.183431952662722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18974358974359</v>
+        <v>0.187287173666288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309090909090909</v>
+        <v>0.258575197889182</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0830670926517572</v>
+        <v>0.0875739644970414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0624290578887628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123636363636364</v>
+        <v>0.0527704485488127</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0479233226837061</v>
+        <v>0.0497041420118343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0974358974358974</v>
+        <v>0.0953461975028377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.105540897097625</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_mean.xlsx
+++ b/xlsx/country_comparison/global_movement_mean.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29112426035503</v>
+        <v>0.29039070749736</v>
       </c>
       <c r="C2" t="n">
         <v>0.296254256526674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.303430079155673</v>
+        <v>0.305402425578831</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.533727810650888</v>
+        <v>0.537486800422387</v>
       </c>
       <c r="C3" t="n">
         <v>0.584562996594779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.54221635883905</v>
+        <v>0.539140022050717</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183431952662722</v>
+        <v>0.181626187961985</v>
       </c>
       <c r="C4" t="n">
         <v>0.187287173666288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258575197889182</v>
+        <v>0.250275633958104</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0875739644970414</v>
+        <v>0.0876451953537487</v>
       </c>
       <c r="C5" t="n">
         <v>0.0624290578887628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0527704485488127</v>
+        <v>0.051819184123484</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0497041420118343</v>
+        <v>0.0485744456177402</v>
       </c>
       <c r="C6" t="n">
         <v>0.0953461975028377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.105540897097625</v>
+        <v>0.103638368246968</v>
       </c>
     </row>
   </sheetData>
